--- a/类解释.xlsx
+++ b/类解释.xlsx
@@ -692,7 +692,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/类解释.xlsx
+++ b/类解释.xlsx
@@ -1,142 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
+    <t xml:space="preserve">名称 </t>
+  </si>
+  <si>
+    <t>作用</t>
+  </si>
+  <si>
+    <t>叙述</t>
+  </si>
+  <si>
+    <t>Cloneable</t>
+  </si>
+  <si>
+    <t>深拷贝</t>
+  </si>
+  <si>
+    <t>重写clone（）</t>
+  </si>
+  <si>
     <t xml:space="preserve">Serializable  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>序列化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通过数据流保存类——transient，取消序列化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThreadLocal</t>
+  </si>
+  <si>
+    <t>线程本地变量</t>
+  </si>
+  <si>
+    <t>对变量备份——线程安全</t>
+  </si>
+  <si>
+    <t>InvocationHandler</t>
+  </si>
+  <si>
+    <t>动态代理(AOP原理)</t>
+  </si>
+  <si>
+    <t>instanceof</t>
+  </si>
+  <si>
+    <t>类的判断</t>
+  </si>
+  <si>
+    <t>判断object 是不是指定类的一个实例(equals方法经常用到)</t>
   </si>
   <si>
     <t>LRUCache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>继承LinkedHashMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>对容量进行控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Synchronized</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>基于JVM的锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>对于锁的粒度控制比较粗，同时对于实现一些锁的状态的转移比较困难</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cloneable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深拷贝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重写clone（）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThreadLocal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程本地变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对变量备份——线程安全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>instanceof</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类的判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReentrantLock</t>
+  </si>
+  <si>
+    <t>基于JDK的锁</t>
+  </si>
+  <si>
+    <t>lock方法获得锁，unlock方法释放锁</t>
   </si>
   <si>
     <t>ConcurrentHashMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Map集合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>允许一边更新、一边遍历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReentrantLock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于JDK的锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lock方法获得锁，unlock方法释放锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LinkedHashMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>有序的HashMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>false：插入顺序；true：访问数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">名称 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叙述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigDecimal</t>
+  </si>
+  <si>
+    <t>商业精确计算,有小数</t>
+  </si>
+  <si>
+    <t>银行计算的方法</t>
   </si>
   <si>
     <t>BigInteger</t>
   </si>
   <si>
+    <t>大数据计算，整数</t>
+  </si>
+  <si>
+    <t>大数据计算</t>
+  </si>
+  <si>
     <t>Thread.dumpStack();</t>
   </si>
   <si>
@@ -146,80 +141,195 @@
     <t>查看当前执行方法的主体是谁</t>
   </si>
   <si>
-    <t>BigDecimal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态代理(AOP原理)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InvocationHandler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业精确计算,有小数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大数据计算，整数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行计算的方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大数据计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断object 是不是指定类的一个实例(equals方法经常用到)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>native</t>
   </si>
   <si>
     <t>java实现对底层的控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +338,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -240,12 +356,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -260,6 +556,21 @@
       <right style="hair">
         <color auto="1"/>
       </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -299,7 +610,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="hair">
         <color auto="1"/>
       </left>
       <right style="hair">
@@ -317,7 +628,7 @@
       <left style="hair">
         <color auto="1"/>
       </left>
-      <right style="hair">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="hair">
@@ -329,68 +640,342 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="hair">
-        <color auto="1"/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="hair">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFDA9694"/>
-      <color rgb="FFC6EFCE"/>
-      <color rgb="FFFF0066"/>
-      <color rgb="FFADDB7B"/>
+      <color rgb="00DA9694"/>
+      <color rgb="00C6EFCE"/>
+      <color rgb="00FF0066"/>
+      <color rgb="00ADDB7B"/>
     </mruColors>
   </colors>
   <extLst>
@@ -682,302 +1267,309 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:C12"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="30.625" customWidth="1"/>
     <col min="2" max="2" width="40.875" customWidth="1"/>
     <col min="3" max="3" width="84.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" ht="22.5" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="22.5" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="22.5" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="22.5" spans="1:3">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" ht="22.5" spans="1:3">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="22.5" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="22.5" spans="1:3">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" ht="22.5" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" ht="22.5" spans="1:3">
+      <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    <row r="11" ht="22.5" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" ht="22.5" spans="1:3">
+      <c r="A12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" ht="22.5" spans="1:3">
+      <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" ht="22.5" spans="1:3">
+      <c r="A14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+    <row r="15" ht="22.5" spans="1:3">
+      <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
+    <row r="16" ht="22.5" spans="1:3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" ht="22.5" spans="1:3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" ht="22.5" spans="1:3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" ht="22.5" spans="1:3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" ht="22.5" spans="1:3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" ht="22.5" spans="1:3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" ht="22.5" spans="1:3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" ht="22.5" spans="1:3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" ht="22.5" spans="1:3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" ht="22.5" spans="1:3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" ht="22.5" spans="1:3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" ht="22.5" spans="1:3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" ht="22.5" spans="1:3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" ht="22.5" spans="1:3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" ht="22.5" spans="1:3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" ht="22.5" spans="1:3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" ht="22.5" spans="1:3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/类解释.xlsx
+++ b/类解释.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">名称 </t>
   </si>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>java实现对底层的控制</t>
+  </si>
+  <si>
+    <t>CountDownLatch</t>
+  </si>
+  <si>
+    <t>同步辅助类</t>
+  </si>
+  <si>
+    <t>等待一组线程结束后再执行</t>
+  </si>
+  <si>
+    <t>Future</t>
   </si>
 </sst>
 </file>
@@ -157,7 +169,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,13 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -329,7 +334,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,12 +488,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,148 +739,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,7 +1277,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1450,12 +1449,20 @@
       </c>
     </row>
     <row r="16" ht="22.5" spans="1:3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" ht="22.5" spans="1:3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
     </row>

--- a/类解释.xlsx
+++ b/类解释.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t xml:space="preserve">名称 </t>
   </si>
@@ -157,6 +157,63 @@
   </si>
   <si>
     <t>Future</t>
+  </si>
+  <si>
+    <t>BlockingQueue</t>
+  </si>
+  <si>
+    <t>单项队列接口</t>
+  </si>
+  <si>
+    <t>实现了消费者和生产者的竞争队列</t>
+  </si>
+  <si>
+    <t>ArrayBlockingQueue</t>
+  </si>
+  <si>
+    <t>数组阻塞队列</t>
+  </si>
+  <si>
+    <t>固定的容量大小</t>
+  </si>
+  <si>
+    <t>DelayQueue</t>
+  </si>
+  <si>
+    <t>LinkedBlockingQueue</t>
+  </si>
+  <si>
+    <t>链阻塞队列</t>
+  </si>
+  <si>
+    <t>内部是个链式结构，可以定义大小，否则默认int最大</t>
+  </si>
+  <si>
+    <t>PriorityBlockingQueue</t>
+  </si>
+  <si>
+    <t>优先级链阻塞队列</t>
+  </si>
+  <si>
+    <t>阻塞的同时保证了消息的优先级</t>
+  </si>
+  <si>
+    <t>SynchronousQueue</t>
+  </si>
+  <si>
+    <t>单个资源的竞争</t>
+  </si>
+  <si>
+    <t>只存一个元素</t>
+  </si>
+  <si>
+    <t>BlockingDeque</t>
+  </si>
+  <si>
+    <t>双向队列接口</t>
+  </si>
+  <si>
+    <t>LinkedBlockingDeque</t>
   </si>
 </sst>
 </file>
@@ -1275,9 +1332,9 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1467,44 +1524,88 @@
       <c r="C17" s="7"/>
     </row>
     <row r="18" ht="22.5" spans="1:3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="19" ht="22.5" spans="1:3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20" ht="22.5" spans="1:3">
-      <c r="A20" s="8"/>
+      <c r="A20" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
     </row>
     <row r="21" ht="22.5" spans="1:3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" ht="22.5" spans="1:3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" ht="22.5" spans="1:3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="24" ht="22.5" spans="1:3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="25" ht="22.5" spans="1:3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="26" ht="22.5" spans="1:3">
       <c r="A26" s="8"/>
